--- a/data/trans_dic/P23_6_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P23_6_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que tiene menos o mucha menos posibilidad de la que desea de hablar con alguien de sus problemas en el trabajo y/o estudios</t>
+          <t>Población que tiene menos o mucha menos posibilidad de la que desea de hablar con alguien de sus problemas en el trabajo y/o estudios (tasa de respuesta: 99,39%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,87%</t>
+          <t>2,25%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,18%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,87%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,55%</t>
+          <t>6,77%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>6,97%</t>
+          <t>6,94%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>7,72%</t>
+          <t>5,8%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,85%</t>
+          <t>7,13%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>5,67%</t>
+          <t>12,74%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5,46%</t>
+          <t>4,78%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>4,87%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>4,54%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>9,86%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,14; 6,48</t>
+          <t>0,56; 5,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,15; 7,21</t>
+          <t>1,28; 8,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,28; 5,46</t>
+          <t>0,42; 4,89</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,95; 10,48</t>
+          <t>3,48; 11,81</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,57; 9,93</t>
+          <t>4,13; 12,29</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,25; 11,09</t>
+          <t>3,29; 9,38</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,15; 7,81</t>
+          <t>4,05; 11,42</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,91; 7,56</t>
+          <t>8,37; 19,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,81; 7,57</t>
+          <t>2,87; 7,51</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>2,81; 7,59</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>2,49; 7,09</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>6,69; 14,21</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,03%</t>
+          <t>5,36%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,88%</t>
+          <t>5,18%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,65%</t>
+          <t>4,25%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,88%</t>
+          <t>5,67%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>5,56%</t>
+          <t>6,27%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>5,4%</t>
+          <t>5,18%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>5,48%</t>
+          <t>5,19%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>4,25%</t>
+          <t>4,34%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>4,53%</t>
+          <t>5,85%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>5,18%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>4,73%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>5,01%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,85; 8,36</t>
+          <t>2,53; 10,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,45; 10,3</t>
+          <t>0,8; 16,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,65; 7,14</t>
+          <t>1,47; 9,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,26; 10,59</t>
+          <t>2,35; 11,33</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,47; 8,91</t>
+          <t>3,29; 11,63</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,29; 8,78</t>
+          <t>2,14; 9,01</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,68; 8,79</t>
+          <t>2,43; 9,66</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,5; 7,67</t>
+          <t>1,98; 8,2</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,81; 6,95</t>
+          <t>3,55; 9,15</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>2,68; 10,52</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>2,77; 7,46</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>2,85; 8,21</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,01%</t>
+          <t>5,12%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>15,1%</t>
+          <t>30,01%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,99%</t>
+          <t>10,99%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,3%</t>
+          <t>31,61%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>7,27%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>5,18%</t>
+          <t>7,15%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,75%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>11,28%</t>
+          <t>11,33%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>5,08%</t>
+          <t>2,57%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>18,57%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>5,49%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>21,68%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,79; 16,4</t>
+          <t>0,0; 29,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,54; 41,71</t>
+          <t>6,58; 67,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,33</t>
+          <t>0,0; 42,14</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,76</t>
+          <t>0,0; 72,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,76; 14,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,31; 14,07</t>
+          <t>1,99; 17,61</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,26; 9,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,81; 24,93</t>
+          <t>2,94; 27,9</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,88; 13,28</t>
+          <t>0,0; 11,91</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>6,47; 42,52</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 18,81</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>6,79; 47,51</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,59%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,94%</t>
+          <t>7,15%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,45%</t>
+          <t>3,75%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,27%</t>
+          <t>9,12%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,44%</t>
+          <t>5,98%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,54%</t>
+          <t>5,68%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,48%</t>
+          <t>5,63%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>5,72%</t>
+          <t>9,41%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5,04%</t>
+          <t>4,98%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>6,37%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>4,72%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>9,26%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1081 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,23; 6,69</t>
+          <t>2,04; 6,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,74; 9,4</t>
+          <t>3,4; 14,65</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,18; 5,63</t>
+          <t>1,88; 7,11</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,66; 8,8</t>
+          <t>5,31; 19,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,86; 8,61</t>
+          <t>3,94; 8,74</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,92; 8,63</t>
+          <t>3,64; 8,26</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,32; 6,9</t>
+          <t>3,59; 8,11</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,4; 7,92</t>
+          <t>6,39; 12,89</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,85; 6,37</t>
+          <t>3,67; 6,88</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>4,04; 10,06</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>3,31; 6,77</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>6,86; 14,42</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que tiene menos o mucha menos posibilidad de la que desea de hablar con alguien de sus problemas en el trabajo y/o estudios (tasa de respuesta: 99,39%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>9677</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>13616</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>6756</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>34570</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>34841</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>24297</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>29046</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>70163</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>44518</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>37913</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>35801</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>104734</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2428; 22739</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>4615; 30050</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1589; 18607</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>17787; 60346</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>20712; 61687</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>13762; 39305</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>16510; 46532</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>46113; 104658</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>26778; 69949</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>21863; 59140</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>19656; 55909</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>70984; 150882</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>19251</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>16082</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>13410</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>23164</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>26686</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>17416</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>17291</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>17555</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>45938</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>33497</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>30701</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>40719</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>9084; 35981</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>2479; 51456</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>4636; 28739</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>9621; 46276</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>13991; 49477</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>7187; 30322</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>8081; 32155</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>7994; 33156</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>27825; 71807</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>17350; 68035</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>17967; 48365</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>23210; 66788</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>5209</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>23891</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>9041</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>36694</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>5702</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>12619</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>5209</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>29593</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>9041</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>49313</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 29728</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5235; 53959</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 34668</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 84065</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1585; 14044</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>3278; 31073</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 24173</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>10311; 67768</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0; 31000</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>15446; 108066</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>34138</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>53589</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>29206</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>94428</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>61527</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>47414</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>46337</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>100337</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>95665</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>101003</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>75543</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>194766</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>18170; 58516</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>25489; 109848</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>14609; 55381</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>54964; 198513</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>40488; 89870</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>30386; 68991</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>29562; 66782</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>68141; 137463</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>70411; 132068</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>64005; 159460</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>52998; 108467</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>144219; 303132</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
